--- a/source/data.xlsx
+++ b/source/data.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowHeight="16160"/>
+    <workbookView windowWidth="28000" windowHeight="13940"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -27,48 +27,84 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="15">
-  <si>
-    <t>productCode</t>
-  </si>
-  <si>
-    <t>pageTitle</t>
-  </si>
-  <si>
-    <t>MPV</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="27">
+  <si>
+    <t>product_line</t>
+  </si>
+  <si>
+    <t>product_name</t>
+  </si>
+  <si>
+    <t>page_id</t>
+  </si>
+  <si>
+    <t>mpv</t>
   </si>
   <si>
     <t>A</t>
   </si>
   <si>
+    <t>产品1</t>
+  </si>
+  <si>
     <t>home(工作台首页)</t>
   </si>
   <si>
+    <t>产品2</t>
+  </si>
+  <si>
     <t>detail(工作台首页)</t>
   </si>
   <si>
+    <t>产品3</t>
+  </si>
+  <si>
     <t>a(工作台首页)</t>
   </si>
   <si>
+    <t>产品4</t>
+  </si>
+  <si>
     <t>b(工作台首页)</t>
   </si>
   <si>
+    <t>产品5</t>
+  </si>
+  <si>
     <t>c(工作台首页)</t>
   </si>
   <si>
+    <t>产品6</t>
+  </si>
+  <si>
     <t>d(工作台首页)</t>
   </si>
   <si>
+    <t>产品7</t>
+  </si>
+  <si>
     <t>e(工作台首页)</t>
   </si>
   <si>
+    <t>产品8</t>
+  </si>
+  <si>
     <t>f(工作台首页)</t>
   </si>
   <si>
+    <t>产品9</t>
+  </si>
+  <si>
     <t>http://xx.ddd.com/ddd/jjj(工作台首页)</t>
   </si>
   <si>
+    <t>产品10</t>
+  </si>
+  <si>
     <t>http://xx.ddd.com/ddd/jjjda(工作台首页)</t>
+  </si>
+  <si>
+    <t>产品11</t>
   </si>
   <si>
     <t>http://xx.ddd.com/ddd/jjjdafqf(工作台首页)</t>
@@ -1219,20 +1255,20 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:C12"/>
+  <dimension ref="A1:D12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C21" sqref="C21"/>
+      <selection activeCell="B15" sqref="B15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.23076923076923" defaultRowHeight="16.8" outlineLevelCol="2"/>
+  <sheetFormatPr defaultColWidth="9.23076923076923" defaultRowHeight="16.8" outlineLevelCol="3"/>
   <cols>
     <col min="1" max="1" width="31.0769230769231" customWidth="1"/>
-    <col min="2" max="2" width="41.6634615384615" customWidth="1"/>
-    <col min="3" max="3" width="22.1153846153846" customWidth="1"/>
+    <col min="2" max="3" width="41.6634615384615" customWidth="1"/>
+    <col min="4" max="4" width="22.1153846153846" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3">
+    <row r="1" spans="1:4">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1242,133 +1278,169 @@
       <c r="C1" t="s">
         <v>2</v>
       </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
     </row>
-    <row r="2" spans="1:3">
+    <row r="2" spans="1:4">
       <c r="A2" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D2">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4">
+      <c r="A3" t="s">
         <v>4</v>
       </c>
-      <c r="C2">
-        <v>56</v>
+      <c r="B3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C3" t="s">
+        <v>8</v>
+      </c>
+      <c r="D3">
+        <v>57</v>
       </c>
     </row>
-    <row r="3" spans="1:3">
-      <c r="A3" t="s">
-        <v>3</v>
-      </c>
-      <c r="B3" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3">
-        <v>57</v>
+    <row r="4" spans="1:4">
+      <c r="A4" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C4" t="s">
+        <v>10</v>
+      </c>
+      <c r="D4">
+        <v>58</v>
       </c>
     </row>
-    <row r="4" spans="1:3">
-      <c r="A4" t="s">
-        <v>3</v>
-      </c>
-      <c r="B4" t="s">
-        <v>6</v>
-      </c>
-      <c r="C4">
-        <v>58</v>
+    <row r="5" spans="1:4">
+      <c r="A5" t="s">
+        <v>4</v>
+      </c>
+      <c r="B5" t="s">
+        <v>11</v>
+      </c>
+      <c r="C5" t="s">
+        <v>12</v>
+      </c>
+      <c r="D5">
+        <v>59</v>
       </c>
     </row>
-    <row r="5" spans="1:3">
-      <c r="A5" t="s">
-        <v>3</v>
-      </c>
-      <c r="B5" t="s">
-        <v>7</v>
-      </c>
-      <c r="C5">
-        <v>59</v>
+    <row r="6" spans="1:4">
+      <c r="A6" t="s">
+        <v>4</v>
+      </c>
+      <c r="B6" t="s">
+        <v>13</v>
+      </c>
+      <c r="C6" t="s">
+        <v>14</v>
+      </c>
+      <c r="D6">
+        <v>60</v>
       </c>
     </row>
-    <row r="6" spans="1:3">
-      <c r="A6" t="s">
-        <v>3</v>
-      </c>
-      <c r="B6" t="s">
-        <v>8</v>
-      </c>
-      <c r="C6">
-        <v>60</v>
+    <row r="7" spans="1:4">
+      <c r="A7" t="s">
+        <v>4</v>
+      </c>
+      <c r="B7" t="s">
+        <v>15</v>
+      </c>
+      <c r="C7" t="s">
+        <v>16</v>
+      </c>
+      <c r="D7">
+        <v>61</v>
       </c>
     </row>
-    <row r="7" spans="1:3">
-      <c r="A7" t="s">
-        <v>3</v>
-      </c>
-      <c r="B7" t="s">
-        <v>9</v>
-      </c>
-      <c r="C7">
-        <v>61</v>
+    <row r="8" spans="1:4">
+      <c r="A8" t="s">
+        <v>4</v>
+      </c>
+      <c r="B8" t="s">
+        <v>17</v>
+      </c>
+      <c r="C8" t="s">
+        <v>18</v>
+      </c>
+      <c r="D8">
+        <v>62</v>
       </c>
     </row>
-    <row r="8" spans="1:3">
-      <c r="A8" t="s">
-        <v>3</v>
-      </c>
-      <c r="B8" t="s">
-        <v>10</v>
-      </c>
-      <c r="C8">
-        <v>62</v>
+    <row r="9" spans="1:4">
+      <c r="A9" t="s">
+        <v>4</v>
+      </c>
+      <c r="B9" t="s">
+        <v>19</v>
+      </c>
+      <c r="C9" t="s">
+        <v>20</v>
+      </c>
+      <c r="D9">
+        <v>63</v>
       </c>
     </row>
-    <row r="9" spans="1:3">
-      <c r="A9" t="s">
-        <v>3</v>
-      </c>
-      <c r="B9" t="s">
-        <v>11</v>
-      </c>
-      <c r="C9">
-        <v>63</v>
+    <row r="10" spans="1:4">
+      <c r="A10" t="s">
+        <v>4</v>
+      </c>
+      <c r="B10" t="s">
+        <v>21</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="D10">
+        <v>64</v>
       </c>
     </row>
-    <row r="10" spans="1:3">
-      <c r="A10" t="s">
-        <v>3</v>
-      </c>
-      <c r="B10" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="C10">
-        <v>64</v>
+    <row r="11" spans="1:4">
+      <c r="A11" t="s">
+        <v>4</v>
+      </c>
+      <c r="B11" t="s">
+        <v>23</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="D11">
+        <v>65</v>
       </c>
     </row>
-    <row r="11" spans="1:3">
-      <c r="A11" t="s">
-        <v>3</v>
-      </c>
-      <c r="B11" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="C11">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3">
+    <row r="12" spans="1:4">
       <c r="A12" t="s">
-        <v>3</v>
-      </c>
-      <c r="B12" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="C12">
+        <v>4</v>
+      </c>
+      <c r="B12" t="s">
+        <v>25</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="D12">
         <v>66</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="B10" r:id="rId1" display="http://xx.ddd.com/ddd/jjj(工作台首页)"/>
-    <hyperlink ref="B11" r:id="rId2" display="http://xx.ddd.com/ddd/jjjda(工作台首页)"/>
-    <hyperlink ref="B12" r:id="rId3" display="http://xx.ddd.com/ddd/jjjdafqf(工作台首页)"/>
+    <hyperlink ref="C10" r:id="rId1" display="http://xx.ddd.com/ddd/jjj(工作台首页)"/>
+    <hyperlink ref="C11" r:id="rId2" display="http://xx.ddd.com/ddd/jjjda(工作台首页)"/>
+    <hyperlink ref="C12" r:id="rId3" display="http://xx.ddd.com/ddd/jjjdafqf(工作台首页)"/>
   </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>
